--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_models\KModel_03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C7150B-0DB9-4FEB-BE43-0A81107D968C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAF7EB9-5278-4B26-B052-EB76387ADAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="853" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="113">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -244,9 +244,6 @@
   </si>
   <si>
     <t>Share-I</t>
-  </si>
-  <si>
-    <t>MEuro05</t>
   </si>
   <si>
     <t>~TFM_MIG</t>
@@ -2004,8 +2001,8 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>560950</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -3468,13 +3465,13 @@
         <v>35</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -3541,7 +3538,7 @@
         <v>54</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -3792,13 +3789,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:F37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" customWidth="1"/>
@@ -3809,7 +3807,7 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -3820,7 +3818,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>2</v>
@@ -3945,8 +3943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3975,7 +3973,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>17</v>
@@ -3993,7 +3991,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -4023,7 +4021,7 @@
       <c r="G8" s="56"/>
       <c r="H8" s="56"/>
       <c r="I8" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -4047,10 +4045,10 @@
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="59"/>
       <c r="C10" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="58">
         <v>1.1299999999999999</v>
@@ -4059,7 +4057,7 @@
       <c r="G10" s="58"/>
       <c r="H10" s="56"/>
       <c r="I10" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -4067,7 +4065,7 @@
       <c r="C12" s="56"/>
       <c r="D12" s="56"/>
       <c r="E12" s="58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F12" s="56"/>
       <c r="G12" s="56"/>
@@ -4108,16 +4106,16 @@
         <v>17</v>
       </c>
       <c r="C21" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="E21" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="F21" s="24" t="s">
         <v>101</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -4126,13 +4124,13 @@
         <v>47</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E22" s="27" t="s">
         <v>49</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -4194,7 +4192,7 @@
         <v>47</v>
       </c>
       <c r="C27" s="64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27" s="46">
         <v>92</v>
@@ -4211,7 +4209,7 @@
         <v>49</v>
       </c>
       <c r="C28" s="65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="68">
         <v>91</v>
@@ -4228,7 +4226,7 @@
         <v>49</v>
       </c>
       <c r="C29" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29" s="68">
         <v>90</v>
@@ -4245,7 +4243,7 @@
         <v>49</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D30" s="49">
         <v>92</v>
@@ -4323,7 +4321,7 @@
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K39" s="56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L39" s="56"/>
       <c r="M39" s="56" t="s">
@@ -4340,7 +4338,7 @@
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K40" s="56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L40" s="56"/>
       <c r="M40" s="56" t="s">
@@ -4357,7 +4355,7 @@
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K41" s="56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L41" s="56"/>
       <c r="M41" s="56" t="s">
@@ -4374,7 +4372,7 @@
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K42" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L42" s="56"/>
       <c r="M42" s="56" t="s">
@@ -4403,7 +4401,7 @@
   <dimension ref="B2:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4433,7 +4431,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
@@ -4444,7 +4442,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="57" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -4464,23 +4462,23 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
         <v>63</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -4491,7 +4489,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
@@ -4502,10 +4500,10 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
         <v>68</v>
-      </c>
-      <c r="C16" t="s">
-        <v>69</v>
       </c>
       <c r="D16" s="51">
         <v>1000</v>
@@ -4513,10 +4511,10 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
         <v>70</v>
-      </c>
-      <c r="C17" t="s">
-        <v>71</v>
       </c>
       <c r="D17" s="51">
         <v>1000</v>
@@ -4524,7 +4522,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
@@ -4535,7 +4533,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
@@ -4546,7 +4544,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
@@ -4557,7 +4555,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
         <v>38</v>
@@ -4568,10 +4566,10 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="51">
         <v>1000000</v>
@@ -4579,10 +4577,10 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
         <v>77</v>
-      </c>
-      <c r="C23" t="s">
-        <v>78</v>
       </c>
       <c r="D23" s="51">
         <v>1000</v>
@@ -4590,10 +4588,10 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
         <v>79</v>
-      </c>
-      <c r="C24" t="s">
-        <v>80</v>
       </c>
       <c r="D24" s="51">
         <v>0.15384600000000001</v>
@@ -4601,10 +4599,10 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
         <v>81</v>
-      </c>
-      <c r="C25" t="s">
-        <v>82</v>
       </c>
       <c r="D25" s="51">
         <v>-1E-3</v>
@@ -4612,7 +4610,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
@@ -4623,7 +4621,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
         <v>38</v>
@@ -4634,7 +4632,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
@@ -4645,10 +4643,10 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" s="51">
         <v>2.7777769999999999</v>
@@ -4656,7 +4654,7 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
         <v>38</v>
@@ -4688,7 +4686,7 @@
   <dimension ref="B4:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4699,7 +4697,7 @@
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -4707,39 +4705,39 @@
     </row>
     <row r="5" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="59" t="s">
         <v>38</v>
